--- a/doc/2_外部設計/画面遷移図_ふっクラフト.xlsx
+++ b/doc/2_外部設計/画面遷移図_ふっクラフト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修資料\4-Webアプリ開発演習コース\第4回外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A33A46-0CD8-447B-A829-D4C52591DF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816FA1B-4DD7-43D7-B3AF-6DF8192C1D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -224,22 +224,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>562429</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109574</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288472</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C7368D-651B-9C67-4F86-F62B64C28D2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E41B4B-B80C-082B-B272-9D70F11171ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -261,8 +261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="1219200"/>
-          <a:ext cx="8713824" cy="3702050"/>
+          <a:off x="562429" y="1487715"/>
+          <a:ext cx="7772400" cy="2855524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -954,13 +954,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>45089</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">

--- a/doc/2_外部設計/画面遷移図_ふっクラフト.xlsx
+++ b/doc/2_外部設計/画面遷移図_ふっクラフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816FA1B-4DD7-43D7-B3AF-6DF8192C1D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C6746-A560-4591-B411-F8F3EBE6AF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -911,7 +912,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/2_外部設計/画面遷移図_ふっクラフト.xlsx
+++ b/doc/2_外部設計/画面遷移図_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C6746-A560-4591-B411-F8F3EBE6AF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCC4BA0-95F2-4EF1-9903-6CA50F18FC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -225,22 +224,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>562429</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:colOff>480786</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>288472</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161310</xdr:rowOff>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E41B4B-B80C-082B-B272-9D70F11171ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C376AE-B97F-2645-C445-D47C812D14F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -262,8 +261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="562429" y="1487715"/>
-          <a:ext cx="7772400" cy="2855524"/>
+          <a:off x="480786" y="1369786"/>
+          <a:ext cx="7772400" cy="3302088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -912,7 +911,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
